--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/treemap_혼합음료 제조사 제품 성분/grouped_material_counts.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/treemap_혼합음료 제조사 제품 성분/grouped_material_counts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\혼합음료 제조사 제품 성분\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\treemap_혼합음료 제조사 제품 성분\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Group Counts" sheetId="1" r:id="rId1"/>
     <sheet name="Material Counts within Group" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>Group</t>
   </si>
@@ -173,15 +173,15 @@
   </si>
   <si>
     <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>full name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>materials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -190,14 +190,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -219,6 +211,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,69 +252,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,129 +581,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -750,684 +600,836 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="H2" s="7">
+        <f>SUM(G2:G6)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>25</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>13</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>5</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="H7" s="7">
+        <f>SUM(G7:G12)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>8</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>7</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="H13" s="7">
+        <f>SUM(G13:G16)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>34</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>12</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="H17" s="7">
+        <f>SUM(G17:G21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>18</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5" t="s">
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="H22" s="7">
+        <f>SUM(G22:G26)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>38</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="H27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>174</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="H28" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>45</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="H29" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="E32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="E36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="H2:H6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="E22:E26"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>